--- a/varselect/simulation_results/simulation11.result.xlsx
+++ b/varselect/simulation_results/simulation11.result.xlsx
@@ -1,21 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms19g661\Documents\GitHub\phd\varselect\simulation_results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>false em mse</t>
+  </si>
+  <si>
+    <t>true em mse</t>
+  </si>
+  <si>
+    <t>treatment mse</t>
+  </si>
+  <si>
+    <t>patient specific trt mse</t>
+  </si>
+  <si>
+    <t>continuous EM se</t>
+  </si>
+  <si>
+    <t>binary EM se</t>
+  </si>
+  <si>
+    <t>treatment se</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +94,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +180,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,188 +391,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="A5:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>false em mse</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>true em mse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>treatment mse</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>patient specific trt mse</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>continuous EM se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>binary EM se</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>treatment se</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D2">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F2">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G2">
-        <v>0.227</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B3">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>0.097</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E3">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F3">
         <v>0.08</v>
       </c>
       <c r="G3">
-        <v>0.228</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C4">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D4">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E4">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F4">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G4">
-        <v>0.081</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="B5">
-        <v>0.035</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C5">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D5">
-        <v>0.073</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.005</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>0.036</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C6">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D6">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B7">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F7">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G7">
         <v>0.308</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="B8">
         <v>0.03</v>
       </c>
       <c r="C8">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F8">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G8">
         <v>0.308</v>
